--- a/Data/Sediment Trap/analyses/Sample Placements.xlsx
+++ b/Data/Sediment Trap/analyses/Sample Placements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Kelly\Documents\GitHub\NGA-Data-Processing\Data\Sediment Trap\analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA4F0EC-2AD5-4AA1-86C7-EA520BFDDEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A030419-498A-42ED-94B8-66388C5B9621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{A14586E2-11C7-4324-A7A1-7D537EDC64FF}"/>
+    <workbookView xWindow="660" yWindow="765" windowWidth="19170" windowHeight="14370" xr2:uid="{A14586E2-11C7-4324-A7A1-7D537EDC64FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="353">
   <si>
     <t>tray</t>
   </si>
@@ -54,9 +54,6 @@
     <t>acidified</t>
   </si>
   <si>
-    <t>UAGP30</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>B5</t>
   </si>
   <si>
-    <t>S300</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
     <t>D2</t>
   </si>
   <si>
-    <t>T427</t>
-  </si>
-  <si>
-    <t>TC20</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -123,15 +111,9 @@
     <t>B6</t>
   </si>
   <si>
-    <t>P47</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F22</t>
-  </si>
-  <si>
     <t>D5</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>B3</t>
   </si>
   <si>
-    <t>TS58</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -408,9 +387,6 @@
     <t>SKQ202106S.ST6.11.200..POM</t>
   </si>
   <si>
-    <t>SK12</t>
-  </si>
-  <si>
     <t>mass A</t>
   </si>
   <si>
@@ -436,13 +412,697 @@
   </si>
   <si>
     <t>Acidified</t>
+  </si>
+  <si>
+    <t>SP250</t>
+  </si>
+  <si>
+    <t>TGX22.ST1.3.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST1.2.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST3.1.60%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST3.3.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST3.4.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST1.4.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>TGX22.ST1.2.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>TGX22.ST4.4.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST4.2.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST3.2.&gt;200.80%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST3.1.&gt;200.80%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST2.3.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST1.1.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST1.4.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>TGX22.ST1.3.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>TGX22.ST3.2.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST2.1.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST2.2.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST2.1.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST1.2.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST1.1.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST2.4.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST5.16.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST2.46.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST5.5b.&gt;300..POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST5.1a.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>TS163</t>
+  </si>
+  <si>
+    <t>TGX22.ST5.4.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST5.3.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST5.2.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST5.1.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST5.4.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST5.1.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST5.2.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.NO.LABEL..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST5.3.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST3.4.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST4.2.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>TGX22.ST4.4.&lt;200..POM</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>TGX22.ST4.1.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>TGX22.ST3.3.&gt;200.80%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST4.3.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST2.3.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST4.1.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST4.3.&lt;200.60%..POM</t>
+  </si>
+  <si>
+    <t>TGX22.ST2.4.&gt;200..POM</t>
+  </si>
+  <si>
+    <t>KT98</t>
+  </si>
+  <si>
+    <t>KT99</t>
+  </si>
+  <si>
+    <t>JT05</t>
+  </si>
+  <si>
+    <t>NSR2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST3-3…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST3-4…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST3-6…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST3-Blank…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-2…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST1-8…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST1-12…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST1-7…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-12…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-5…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-7…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST1-11…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-Blank…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST3-2…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST1-10…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-10…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST1-4…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST1-9…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-8…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST4-2…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST4-4…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-11…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST1-1…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-3…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-6…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST4-3…POM</t>
+  </si>
+  <si>
+    <t>SKQ202110S.ST2-4…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST1-0…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST2-0…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST2-1…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST2-2…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST1-5…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.GFF1-1…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST1-4…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST1-2…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST1-1…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST1-3…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.GFF2-1…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST3-1…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.GFF4-1…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.GFF3-1…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.GFF4-2…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.GFF4-3…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST3-2…POM</t>
+  </si>
+  <si>
+    <t>TGX202109.ST3-0…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST2-3 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST2-3 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST2-2 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST2-1 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST2-1 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST2-2 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-5 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-3 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-7 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-2 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-6 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-1 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-3 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-5 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-7 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-1 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-6 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202210S.ST1-2 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-7 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-4 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-3 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-1 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-2 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-6 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-4 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-5 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-1 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-8 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-2 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-3 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST2-1 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-5 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST2-3 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST2-2 &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-7 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-8 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST1-6 &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-6a &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-7a &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-3a &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-4a &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-5b &gt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-2a &lt;200…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-5a…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-1b…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-1a…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST2-4a…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST4-2a…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST4-5b…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST4-1b…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST4-7a…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST4-1a…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST4-3a…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST4-5a…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST4-6a…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.ST3-Blank…POM</t>
+  </si>
+  <si>
+    <t>SKQ202207S.Blank…POM</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>TK98</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>NIT5</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>FB473</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>H3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +1118,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +1135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,12 +1157,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,9 +1183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -549,7 +1223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -655,7 +1329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,7 +1471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -805,11 +1479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EF621F-45C0-43F2-AFE4-21DE23FC58C0}">
-  <dimension ref="A2:E176"/>
+  <dimension ref="A2:E429"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,13 +1511,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>0.49056603773584906</v>
@@ -854,13 +1528,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>0.49014824544942764</v>
@@ -871,13 +1545,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>0.50423489553924339</v>
@@ -888,13 +1562,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>0.4750651283959807</v>
@@ -905,13 +1579,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>0.49521615875265762</v>
@@ -922,13 +1596,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>0.49543859649122807</v>
@@ -939,13 +1613,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>0.48902889419943513</v>
@@ -956,13 +1630,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>0.50900514579759859</v>
@@ -973,13 +1647,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>0.46891080617495712</v>
@@ -990,13 +1664,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>0.51294219154443488</v>
@@ -1007,13 +1681,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>0.50056548292241576</v>
@@ -1024,13 +1698,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>0.46400885935769659</v>
@@ -1041,13 +1715,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>0.53748191027496384</v>
@@ -1058,13 +1732,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>0.48462699999999997</v>
@@ -1075,13 +1749,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>0.51600400000000002</v>
@@ -1092,13 +1766,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>0.50177700000000003</v>
@@ -1109,13 +1783,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>0.533941</v>
@@ -1126,13 +1800,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>0.49318899999999999</v>
@@ -1143,13 +1817,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>0.47827799999999998</v>
@@ -1160,13 +1834,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>0.49430062852881645</v>
@@ -1177,13 +1851,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>0.49408887077048513</v>
@@ -1194,13 +1868,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>0.5</v>
@@ -1211,13 +1885,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>0.46283639470311838</v>
@@ -1228,13 +1902,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>0.51943844492440605</v>
@@ -1245,13 +1919,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>0.46958892617449666</v>
@@ -1262,13 +1936,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>0.48911917098445601</v>
@@ -1279,13 +1953,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>0.48062827225130894</v>
@@ -1296,13 +1970,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>0.4774541531823086</v>
@@ -1313,13 +1987,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>0.52768729641693812</v>
@@ -1330,13 +2004,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>0.53516483516483515</v>
@@ -1347,13 +2021,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>0.5</v>
@@ -1364,13 +2038,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D34">
         <v>0.49211734184793454</v>
@@ -1381,13 +2055,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>0.48349900596421475</v>
@@ -1398,13 +2072,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D36">
         <v>0.5</v>
@@ -1415,13 +2089,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D37">
         <v>0.5</v>
@@ -1432,13 +2106,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>315</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>0.50985423937589813</v>
@@ -1449,13 +2123,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D39">
         <v>0.4788013318534961</v>
@@ -1466,13 +2140,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D40">
         <v>0.52175814563743717</v>
@@ -1483,13 +2157,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D41">
         <v>0.51090828138913624</v>
@@ -1500,13 +2174,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D42">
         <v>0.46723518850987433</v>
@@ -1517,13 +2191,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D43">
         <v>0.49277617248277389</v>
@@ -1534,13 +2208,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>0.49248554913294801</v>
@@ -1551,13 +2225,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D45">
         <v>0.49643980791521775</v>
@@ -1568,13 +2242,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D46">
         <v>0.51873574454219618</v>
@@ -1585,13 +2259,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D47">
         <v>0.45157152020525981</v>
@@ -1602,13 +2276,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D48">
         <v>0.51653944020356235</v>
@@ -1619,13 +2293,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D49">
         <v>0.4807952132792897</v>
@@ -1636,13 +2310,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D50">
         <v>0.50435365036838575</v>
@@ -1653,13 +2327,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D51">
         <v>0.50202511138112593</v>
@@ -1670,13 +2344,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D52">
         <v>0.54859057756751428</v>
@@ -1687,13 +2361,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D53">
         <v>0.46670461013090497</v>
@@ -1704,13 +2378,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D54">
         <v>0.51114850652082455</v>
@@ -1721,13 +2395,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D55">
         <v>0.49631298648095046</v>
@@ -1738,13 +2412,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D56">
         <v>0.52680747359870017</v>
@@ -1755,13 +2429,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D57">
         <v>0.47230046948356808</v>
@@ -1772,13 +2446,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D58">
         <v>0.51584898041590954</v>
@@ -1789,13 +2463,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D59">
         <v>0.50422812192723698</v>
@@ -1806,13 +2480,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D60">
         <v>0.51379789557276156</v>
@@ -1823,13 +2497,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D61">
         <v>0.52668435013262593</v>
@@ -1840,13 +2514,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D62">
         <v>0.47663452368337389</v>
@@ -1857,13 +2531,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D63">
         <v>0.51345088161209063</v>
@@ -1874,13 +2548,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>326</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D64">
         <v>0.49087924115286391</v>
@@ -1891,13 +2565,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D65">
         <v>0.49332570556826849</v>
@@ -1908,13 +2582,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D66">
         <v>0.52037037037037037</v>
@@ -1925,13 +2599,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D67">
         <v>0.52215464813205903</v>
@@ -1942,13 +2616,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>327</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D68">
         <v>0.50700983469345051</v>
@@ -1959,13 +2633,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>328</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D69">
         <v>0.48470279720279724</v>
@@ -1976,13 +2650,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D70">
         <v>0.49842271293375395</v>
@@ -1993,13 +2667,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D71">
         <v>0.52903086552989431</v>
@@ -2010,13 +2684,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D72">
         <v>0.52961025814071194</v>
@@ -2027,13 +2701,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D73">
         <v>0.53349318147759628</v>
@@ -2044,13 +2718,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D74">
         <v>0.52324819908316966</v>
@@ -2061,13 +2735,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D75">
         <v>0.50524440926182457</v>
@@ -2078,13 +2752,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D76">
         <v>0.52221632147282704</v>
@@ -2095,13 +2769,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D77">
         <v>0.48167539267015702</v>
@@ -2112,13 +2786,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D78">
         <v>0.47351460221550856</v>
@@ -2129,13 +2803,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D79">
         <v>0.52730171383021118</v>
@@ -2146,13 +2820,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D80">
         <v>0.50511945392491475</v>
@@ -2163,13 +2837,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D81">
         <v>0.52935420743639927</v>
@@ -2180,13 +2854,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D82">
         <v>0.47281713344316312</v>
@@ -2197,13 +2871,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D83">
         <v>0.48636698599852618</v>
@@ -2214,13 +2888,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D84">
         <v>0.49247176913425345</v>
@@ -2231,13 +2905,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D85">
         <v>0.52996362243921113</v>
@@ -2248,13 +2922,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D86">
         <v>0.4910142532534601</v>
@@ -2265,13 +2939,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D87">
         <v>0.50890642615558057</v>
@@ -2282,13 +2956,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D88">
         <v>0.50639547074858471</v>
@@ -2299,13 +2973,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>332</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D89">
         <v>0.45579450418160095</v>
@@ -2316,13 +2990,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D90">
         <v>0.50943396226415094</v>
@@ -2333,13 +3007,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D91">
         <v>0.5098517545505723</v>
@@ -2350,13 +3024,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D92">
         <v>0.49576510446075661</v>
@@ -2367,13 +3041,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D93">
         <v>0.5249348716040193</v>
@@ -2384,13 +3058,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D94">
         <v>0.50478384124734244</v>
@@ -2401,13 +3075,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D95">
         <v>0.50456140350877199</v>
@@ -2418,13 +3092,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D96">
         <v>0.51097110580056482</v>
@@ -2435,13 +3109,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="C97" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D97">
         <v>0.49099485420240141</v>
@@ -2452,13 +3126,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D98">
         <v>0.53108919382504283</v>
@@ -2469,13 +3143,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>328</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D99">
         <v>0.48705780845556512</v>
@@ -2486,13 +3160,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D100">
         <v>0.49943451707758424</v>
@@ -2503,13 +3177,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>327</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D101">
         <v>0.53599114064230347</v>
@@ -2520,13 +3194,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="C102" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D102">
         <v>0.46251808972503616</v>
@@ -2537,13 +3211,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="C103" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D103">
         <v>0.51537300000000008</v>
@@ -2554,13 +3228,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C104" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D104">
         <v>0.48399599999999998</v>
@@ -2571,13 +3245,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="C105" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D105">
         <v>0.49822299999999997</v>
@@ -2588,13 +3262,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D106">
         <v>0.466059</v>
@@ -2605,13 +3279,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D107">
         <v>0.50681100000000001</v>
@@ -2622,13 +3296,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D108">
         <v>0.52172200000000002</v>
@@ -2639,13 +3313,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>336</v>
       </c>
       <c r="C109" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D109">
         <v>0.50569937147118349</v>
@@ -2656,13 +3330,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="C110" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D110">
         <v>0.50591112922951487</v>
@@ -2673,13 +3347,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D111">
         <v>0.5</v>
@@ -2690,13 +3364,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D112">
         <v>0.53716360529688156</v>
@@ -2707,13 +3381,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D113">
         <v>0.48056155507559395</v>
@@ -2724,13 +3398,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="C114" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D114">
         <v>0.53041107382550334</v>
@@ -2741,13 +3415,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>304</v>
+      </c>
+      <c r="B115" t="s">
         <v>5</v>
       </c>
-      <c r="B115" t="s">
-        <v>18</v>
-      </c>
       <c r="C115" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D115">
         <v>0.51088082901554399</v>
@@ -2758,13 +3432,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D116">
         <v>0.51937172774869111</v>
@@ -2775,13 +3449,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D117">
         <v>0.52254584681769134</v>
@@ -2792,13 +3466,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="C118" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D118">
         <v>0.47231270358306188</v>
@@ -2809,13 +3483,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D119">
         <v>0.46483516483516485</v>
@@ -2826,13 +3500,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="C120" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D120">
         <v>0.5</v>
@@ -2843,13 +3517,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="C121" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D121">
         <v>0.50788265815206546</v>
@@ -2860,13 +3534,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B122" t="s">
-        <v>23</v>
+        <v>339</v>
       </c>
       <c r="C122" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D122">
         <v>0.5165009940357852</v>
@@ -2877,13 +3551,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>340</v>
       </c>
       <c r="C123" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D123">
         <v>0.5</v>
@@ -2894,13 +3568,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="C124" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D124">
         <v>0.5</v>
@@ -2911,13 +3585,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="C125" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D125">
         <v>0.49014576062410187</v>
@@ -2928,13 +3602,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="C126" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D126">
         <v>0.52119866814650395</v>
@@ -2945,13 +3619,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D127">
         <v>0.47824185436256283</v>
@@ -2962,13 +3636,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B128" t="s">
-        <v>29</v>
+        <v>343</v>
       </c>
       <c r="C128" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D128">
         <v>0.48909171861086376</v>
@@ -2979,13 +3653,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="C129" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D129">
         <v>0.53276481149012567</v>
@@ -2996,13 +3670,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>340</v>
       </c>
       <c r="C130" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D130">
         <v>0.50722382751722606</v>
@@ -3013,13 +3687,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>344</v>
       </c>
       <c r="C131" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D131">
         <v>0.50751445086705194</v>
@@ -3030,13 +3704,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="C132" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D132">
         <v>0.50356019208478231</v>
@@ -3047,13 +3721,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>344</v>
       </c>
       <c r="C133" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D133">
         <v>0.48126425545780382</v>
@@ -3064,13 +3738,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="C134" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D134">
         <v>0.54842847979474019</v>
@@ -3081,13 +3755,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="C135" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D135">
         <v>0.48346055979643765</v>
@@ -3098,13 +3772,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="C136" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D136">
         <v>0.51920478672071035</v>
@@ -3115,13 +3789,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="C137" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D137">
         <v>0.49564634963161425</v>
@@ -3132,13 +3806,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="C138" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D138">
         <v>0.49797488861887407</v>
@@ -3149,13 +3823,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="C139" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D139">
         <v>0.45140942243248572</v>
@@ -3166,13 +3840,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="C140" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D140">
         <v>0.53329538986909508</v>
@@ -3183,13 +3857,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B141" t="s">
-        <v>23</v>
+        <v>339</v>
       </c>
       <c r="C141" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D141">
         <v>0.48885149347917545</v>
@@ -3200,13 +3874,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="C142" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D142">
         <v>0.50368701351904954</v>
@@ -3217,13 +3891,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="C143" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D143">
         <v>0.47319252640129983</v>
@@ -3234,13 +3908,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="C144" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D144">
         <v>0.52769953051643192</v>
@@ -3251,13 +3925,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="C145" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D145">
         <v>0.48415101958409046</v>
@@ -3268,13 +3942,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="C146" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D146">
         <v>0.49577187807276302</v>
@@ -3285,13 +3959,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="C147" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D147">
         <v>0.48620210442723844</v>
@@ -3302,13 +3976,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D148">
         <v>0.47331564986737407</v>
@@ -3319,13 +3993,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D149">
         <v>0.52336547631662611</v>
@@ -3336,7 +4010,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D150">
         <v>0.48654911838790937</v>
@@ -3347,13 +4021,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="C151" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D151">
         <v>0.50912075884713603</v>
@@ -3364,13 +4038,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D152">
         <v>0.50667429443173151</v>
@@ -3381,13 +4055,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="C153" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D153">
         <v>0.47962962962962963</v>
@@ -3398,13 +4072,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="C154" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D154">
         <v>0.47784535186794097</v>
@@ -3415,13 +4089,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="C155" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D155">
         <v>0.49299016530654949</v>
@@ -3432,13 +4106,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>312</v>
       </c>
       <c r="C156" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D156">
         <v>0.5152972027972027</v>
@@ -3449,13 +4123,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="C157" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D157">
         <v>0.50157728706624605</v>
@@ -3466,13 +4140,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="C158" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D158">
         <v>0.47096913447010569</v>
@@ -3483,13 +4157,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B159" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="C159" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D159">
         <v>0.47038974185928806</v>
@@ -3500,13 +4174,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C160" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D160">
         <v>0.46650681852240372</v>
@@ -3517,13 +4191,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B161" t="s">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="C161" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D161">
         <v>0.47675180091683034</v>
@@ -3534,13 +4208,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D162">
         <v>0.49475559073817543</v>
@@ -3551,13 +4225,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="C163" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D163">
         <v>0.47778367852717296</v>
@@ -3568,13 +4242,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D164">
         <v>0.51832460732984298</v>
@@ -3585,13 +4259,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="C165" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D165">
         <v>0.52648539778449144</v>
@@ -3602,13 +4276,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>326</v>
       </c>
       <c r="C166" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D166">
         <v>0.47269828616978882</v>
@@ -3619,13 +4293,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D167">
         <v>0.49488054607508525</v>
@@ -3636,13 +4310,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="C168" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D168">
         <v>0.47064579256360073</v>
@@ -3653,13 +4327,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="C169" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D169">
         <v>0.52718286655683688</v>
@@ -3670,13 +4344,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="C170" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D170">
         <v>0.51363301400147376</v>
@@ -3687,13 +4361,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C171" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D171">
         <v>0.5075282308657465</v>
@@ -3704,13 +4378,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B172" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="C172" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D172">
         <v>0.47003637756078887</v>
@@ -3721,13 +4395,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C173" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D173">
         <v>0.50898574674653996</v>
@@ -3738,13 +4412,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="C174" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D174">
         <v>0.49109357384441943</v>
@@ -3755,13 +4429,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="C175" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D175">
         <v>0.49360452925141529</v>
@@ -3772,18 +4446,4208 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D176">
         <v>0.54420549581839905</v>
       </c>
       <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D178" s="5">
+        <v>0.52486820999999995</v>
+      </c>
+      <c r="E178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D179" s="5">
+        <v>0.42132578399999998</v>
+      </c>
+      <c r="E179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D180" s="5">
+        <v>0.49521988500000003</v>
+      </c>
+      <c r="E180" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D181" s="5">
+        <v>0.46011865499999999</v>
+      </c>
+      <c r="E181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D182" s="5">
+        <v>0.49305402399999998</v>
+      </c>
+      <c r="E182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D183" s="5">
+        <v>0.52426303900000004</v>
+      </c>
+      <c r="E183" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D184" s="5">
+        <v>0.53163383500000005</v>
+      </c>
+      <c r="E184" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D185" s="5">
+        <v>0.53998203099999997</v>
+      </c>
+      <c r="E185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D186" s="5">
+        <v>0.52067039100000001</v>
+      </c>
+      <c r="E186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D187" s="5">
+        <v>0.55052724099999995</v>
+      </c>
+      <c r="E187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0.51454585799999997</v>
+      </c>
+      <c r="E188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D189" s="5">
+        <v>0.48392817599999999</v>
+      </c>
+      <c r="E189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D190" s="5">
+        <v>0.44260485700000002</v>
+      </c>
+      <c r="E190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D191" s="5">
+        <v>0.448720752</v>
+      </c>
+      <c r="E191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D192" s="5">
+        <v>0.45791399799999999</v>
+      </c>
+      <c r="E192" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D193" s="5">
+        <v>0.511946134</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D194" s="5">
+        <v>0.42755079299999998</v>
+      </c>
+      <c r="E194" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D195" s="5">
+        <v>0.50192003600000001</v>
+      </c>
+      <c r="E195" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D196" s="5">
+        <v>0.50201998699999995</v>
+      </c>
+      <c r="E196" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D197" s="5">
+        <v>0.53068181800000003</v>
+      </c>
+      <c r="E197" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D198" s="5">
+        <v>0.54080924900000005</v>
+      </c>
+      <c r="E198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D199" s="5">
+        <v>0.52811418700000001</v>
+      </c>
+      <c r="E199" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D200" s="5">
+        <v>0.46704035900000002</v>
+      </c>
+      <c r="E200" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D201" s="5">
+        <v>0.50340979500000005</v>
+      </c>
+      <c r="E201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D202" s="5">
+        <v>0.49736957500000001</v>
+      </c>
+      <c r="E202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D203" s="5">
+        <v>0.52654018300000005</v>
+      </c>
+      <c r="E203" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D204" s="5">
+        <v>0.50921149600000004</v>
+      </c>
+      <c r="E204" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D205" s="5">
+        <v>0.53268482500000003</v>
+      </c>
+      <c r="E205" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D206" s="5">
+        <v>0.46499032899999998</v>
+      </c>
+      <c r="E206" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D207" s="5">
+        <v>0.49929478100000002</v>
+      </c>
+      <c r="E207" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D208" s="5">
+        <v>0.45411663800000002</v>
+      </c>
+      <c r="E208" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D209" s="5">
+        <v>0.49794238699999999</v>
+      </c>
+      <c r="E209" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D210" s="5">
+        <v>0.53866666699999999</v>
+      </c>
+      <c r="E210" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D211" s="5">
+        <v>0.53914297499999997</v>
+      </c>
+      <c r="E211" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D212" s="5">
+        <v>0.495607613</v>
+      </c>
+      <c r="E212" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D213" s="5">
+        <v>0.45991561199999997</v>
+      </c>
+      <c r="E213" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D214" s="5">
+        <v>0.517241379</v>
+      </c>
+      <c r="E214" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D215" s="5">
+        <v>0.51746724899999996</v>
+      </c>
+      <c r="E215" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D216" s="5">
+        <v>0.457964602</v>
+      </c>
+      <c r="E216" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D217" s="5">
+        <v>0.48024948000000001</v>
+      </c>
+      <c r="E217" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D218" s="5">
+        <v>0.52051835899999999</v>
+      </c>
+      <c r="E218" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D219" s="5">
+        <v>0.48222222199999998</v>
+      </c>
+      <c r="E219" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D220" s="5">
+        <v>0.42324561399999999</v>
+      </c>
+      <c r="E220" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D221" s="5">
+        <v>0.41137855600000001</v>
+      </c>
+      <c r="E221" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D222" s="5">
+        <v>0.52125279599999996</v>
+      </c>
+      <c r="E222" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>179</v>
+      </c>
+      <c r="B224" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" t="s">
+        <v>197</v>
+      </c>
+      <c r="D224">
+        <v>0.49960536700868186</v>
+      </c>
+      <c r="E224" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>179</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" t="s">
+        <v>198</v>
+      </c>
+      <c r="D225">
+        <v>0.22807017543859651</v>
+      </c>
+      <c r="E225" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>179</v>
+      </c>
+      <c r="B226" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" t="s">
+        <v>199</v>
+      </c>
+      <c r="D226">
+        <v>0.50737522731865026</v>
+      </c>
+      <c r="E226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>179</v>
+      </c>
+      <c r="B227" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" t="s">
+        <v>200</v>
+      </c>
+      <c r="D227">
+        <v>0.50688647746243731</v>
+      </c>
+      <c r="E227" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>179</v>
+      </c>
+      <c r="B228" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" t="s">
+        <v>201</v>
+      </c>
+      <c r="D228">
+        <v>0.25852036575228593</v>
+      </c>
+      <c r="E228" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>179</v>
+      </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" t="s">
+        <v>202</v>
+      </c>
+      <c r="D229">
+        <v>0.48569005723977099</v>
+      </c>
+      <c r="E229" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>179</v>
+      </c>
+      <c r="B230" t="s">
+        <v>132</v>
+      </c>
+      <c r="C230" t="s">
+        <v>203</v>
+      </c>
+      <c r="D230">
+        <v>0.5088155984235635</v>
+      </c>
+      <c r="E230" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>179</v>
+      </c>
+      <c r="B231" t="s">
+        <v>134</v>
+      </c>
+      <c r="C231" t="s">
+        <v>204</v>
+      </c>
+      <c r="D231">
+        <v>0.48379154698399673</v>
+      </c>
+      <c r="E231" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>179</v>
+      </c>
+      <c r="B232" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" t="s">
+        <v>205</v>
+      </c>
+      <c r="D232">
+        <v>0.52981744421906696</v>
+      </c>
+      <c r="E232" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>179</v>
+      </c>
+      <c r="B233" t="s">
+        <v>21</v>
+      </c>
+      <c r="C233" t="s">
+        <v>206</v>
+      </c>
+      <c r="D233">
+        <v>0.49335785816472516</v>
+      </c>
+      <c r="E233" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>179</v>
+      </c>
+      <c r="B234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" t="s">
+        <v>207</v>
+      </c>
+      <c r="D234">
+        <v>0.48862005331146197</v>
+      </c>
+      <c r="E234" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>179</v>
+      </c>
+      <c r="B235" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" t="s">
+        <v>208</v>
+      </c>
+      <c r="D235">
+        <v>0.50338906461816546</v>
+      </c>
+      <c r="E235" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>179</v>
+      </c>
+      <c r="B236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>209</v>
+      </c>
+      <c r="D236">
+        <v>0.53998747128836921</v>
+      </c>
+      <c r="E236" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>179</v>
+      </c>
+      <c r="B237" t="s">
+        <v>23</v>
+      </c>
+      <c r="C237" t="s">
+        <v>210</v>
+      </c>
+      <c r="D237">
+        <v>0.28504482477587612</v>
+      </c>
+      <c r="E237" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>179</v>
+      </c>
+      <c r="B238" t="s">
+        <v>142</v>
+      </c>
+      <c r="C238" t="s">
+        <v>211</v>
+      </c>
+      <c r="D238">
+        <v>0.47647058823529415</v>
+      </c>
+      <c r="E238" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>179</v>
+      </c>
+      <c r="B239" t="s">
+        <v>144</v>
+      </c>
+      <c r="C239" t="s">
+        <v>212</v>
+      </c>
+      <c r="D239">
+        <v>0.53366275478690539</v>
+      </c>
+      <c r="E239" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>179</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>213</v>
+      </c>
+      <c r="D240">
+        <v>0.55519828510182212</v>
+      </c>
+      <c r="E240" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>179</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>214</v>
+      </c>
+      <c r="D241">
+        <v>0.53716216216216217</v>
+      </c>
+      <c r="E241" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>179</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>215</v>
+      </c>
+      <c r="D242">
+        <v>0.22933049946865036</v>
+      </c>
+      <c r="E242" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>179</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" t="s">
+        <v>216</v>
+      </c>
+      <c r="D243">
+        <v>0.51078360891445007</v>
+      </c>
+      <c r="E243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>179</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>217</v>
+      </c>
+      <c r="D244">
+        <v>0.52593818984547458</v>
+      </c>
+      <c r="E244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>179</v>
+      </c>
+      <c r="B245" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" t="s">
+        <v>218</v>
+      </c>
+      <c r="D245">
+        <v>0.51438312380140638</v>
+      </c>
+      <c r="E245" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>179</v>
+      </c>
+      <c r="B246" t="s">
+        <v>170</v>
+      </c>
+      <c r="C246" t="s">
+        <v>219</v>
+      </c>
+      <c r="D246">
+        <v>0.52495697074010328</v>
+      </c>
+      <c r="E246" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>179</v>
+      </c>
+      <c r="B247" t="s">
+        <v>172</v>
+      </c>
+      <c r="C247" t="s">
+        <v>220</v>
+      </c>
+      <c r="D247">
+        <v>0.4943844492440605</v>
+      </c>
+      <c r="E247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>179</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>221</v>
+      </c>
+      <c r="D248">
+        <v>0.51203180581711649</v>
+      </c>
+      <c r="E248" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>179</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" t="s">
+        <v>222</v>
+      </c>
+      <c r="D249">
+        <v>0.23252412986253293</v>
+      </c>
+      <c r="E249" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>179</v>
+      </c>
+      <c r="B250" t="s">
+        <v>24</v>
+      </c>
+      <c r="C250" t="s">
+        <v>223</v>
+      </c>
+      <c r="D250">
+        <v>0.54265704584040753</v>
+      </c>
+      <c r="E250" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>180</v>
+      </c>
+      <c r="B251" t="s">
+        <v>132</v>
+      </c>
+      <c r="C251" t="s">
+        <v>224</v>
+      </c>
+      <c r="D251">
+        <v>0.49242983751846381</v>
+      </c>
+      <c r="E251" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>180</v>
+      </c>
+      <c r="B252" t="s">
+        <v>134</v>
+      </c>
+      <c r="C252" t="s">
+        <v>225</v>
+      </c>
+      <c r="D252">
+        <v>0.53370356185369583</v>
+      </c>
+      <c r="E252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>180</v>
+      </c>
+      <c r="B253" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" t="s">
+        <v>226</v>
+      </c>
+      <c r="D253">
+        <v>0.13292110279417918</v>
+      </c>
+      <c r="E253" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>180</v>
+      </c>
+      <c r="B254" t="s">
+        <v>21</v>
+      </c>
+      <c r="C254" t="s">
+        <v>227</v>
+      </c>
+      <c r="D254">
+        <v>0.51667011803686058</v>
+      </c>
+      <c r="E254" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>180</v>
+      </c>
+      <c r="B255" t="s">
+        <v>27</v>
+      </c>
+      <c r="C255" t="s">
+        <v>228</v>
+      </c>
+      <c r="D255">
+        <v>0.50638012088650097</v>
+      </c>
+      <c r="E255" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>180</v>
+      </c>
+      <c r="B256" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" t="s">
+        <v>229</v>
+      </c>
+      <c r="D256">
+        <v>0.50203068592057765</v>
+      </c>
+      <c r="E256" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>180</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>230</v>
+      </c>
+      <c r="D257">
+        <v>0.52224199288256234</v>
+      </c>
+      <c r="E257" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>180</v>
+      </c>
+      <c r="B258" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258" t="s">
+        <v>231</v>
+      </c>
+      <c r="D258">
+        <v>0.5182115594329334</v>
+      </c>
+      <c r="E258" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>180</v>
+      </c>
+      <c r="B259" t="s">
+        <v>142</v>
+      </c>
+      <c r="C259" t="s">
+        <v>232</v>
+      </c>
+      <c r="D259">
+        <v>0.51772428884026256</v>
+      </c>
+      <c r="E259" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>180</v>
+      </c>
+      <c r="B260" t="s">
+        <v>144</v>
+      </c>
+      <c r="C260" t="s">
+        <v>233</v>
+      </c>
+      <c r="D260">
+        <v>0.49851969938510582</v>
+      </c>
+      <c r="E260" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>180</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>234</v>
+      </c>
+      <c r="D261">
+        <v>0.5048097030531159</v>
+      </c>
+      <c r="E261" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>180</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>235</v>
+      </c>
+      <c r="D262">
+        <v>0.52584531675087443</v>
+      </c>
+      <c r="E262" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>180</v>
+      </c>
+      <c r="B263" t="s">
+        <v>8</v>
+      </c>
+      <c r="C263" t="s">
+        <v>236</v>
+      </c>
+      <c r="D263">
+        <v>0.50698151950718684</v>
+      </c>
+      <c r="E263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>180</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>237</v>
+      </c>
+      <c r="D264">
+        <v>0.48084365325077399</v>
+      </c>
+      <c r="E264" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>180</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>238</v>
+      </c>
+      <c r="D265">
+        <v>0.54974597798475866</v>
+      </c>
+      <c r="E265" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>180</v>
+      </c>
+      <c r="B266" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" t="s">
+        <v>239</v>
+      </c>
+      <c r="D266">
+        <v>0.50483286347160694</v>
+      </c>
+      <c r="E266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>180</v>
+      </c>
+      <c r="B267" t="s">
+        <v>170</v>
+      </c>
+      <c r="C267" t="s">
+        <v>240</v>
+      </c>
+      <c r="D267">
+        <v>0.56467473524962186</v>
+      </c>
+      <c r="E267" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>180</v>
+      </c>
+      <c r="B268" t="s">
+        <v>172</v>
+      </c>
+      <c r="C268" t="s">
+        <v>241</v>
+      </c>
+      <c r="D268">
+        <v>0.5482404112297351</v>
+      </c>
+      <c r="E268" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>180</v>
+      </c>
+      <c r="B269" t="s">
+        <v>183</v>
+      </c>
+      <c r="C269" t="s">
+        <v>242</v>
+      </c>
+      <c r="D269">
+        <v>0.42691415313225056</v>
+      </c>
+      <c r="E269" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>180</v>
+      </c>
+      <c r="B270" t="s">
+        <v>184</v>
+      </c>
+      <c r="C270" t="s">
+        <v>243</v>
+      </c>
+      <c r="D270">
+        <v>0.49519230769230771</v>
+      </c>
+      <c r="E270" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>180</v>
+      </c>
+      <c r="B271" t="s">
+        <v>185</v>
+      </c>
+      <c r="C271" t="s">
+        <v>244</v>
+      </c>
+      <c r="D271">
+        <v>0.46682464454976297</v>
+      </c>
+      <c r="E271" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>180</v>
+      </c>
+      <c r="B272" t="s">
+        <v>186</v>
+      </c>
+      <c r="C272" t="s">
+        <v>245</v>
+      </c>
+      <c r="D272">
+        <v>0.51460674157303377</v>
+      </c>
+      <c r="E272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>180</v>
+      </c>
+      <c r="B273" t="s">
+        <v>187</v>
+      </c>
+      <c r="C273" t="s">
+        <v>246</v>
+      </c>
+      <c r="D273">
+        <v>0.49780701754385964</v>
+      </c>
+      <c r="E273" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>180</v>
+      </c>
+      <c r="B274" t="s">
+        <v>188</v>
+      </c>
+      <c r="C274" t="s">
+        <v>247</v>
+      </c>
+      <c r="D274">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="E274" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>181</v>
+      </c>
+      <c r="B275" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" t="s">
+        <v>248</v>
+      </c>
+      <c r="D275">
+        <v>0.50460829493087567</v>
+      </c>
+      <c r="E275" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>181</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" t="s">
+        <v>249</v>
+      </c>
+      <c r="D276">
+        <v>0.4752252252252252</v>
+      </c>
+      <c r="E276" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>181</v>
+      </c>
+      <c r="B277" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" t="s">
+        <v>250</v>
+      </c>
+      <c r="D277">
+        <v>0.5</v>
+      </c>
+      <c r="E277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>181</v>
+      </c>
+      <c r="B278" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" t="s">
+        <v>251</v>
+      </c>
+      <c r="D278">
+        <v>0.50344827586206897</v>
+      </c>
+      <c r="E278" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>181</v>
+      </c>
+      <c r="B279" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" t="s">
+        <v>252</v>
+      </c>
+      <c r="D279">
+        <v>0.49659863945578231</v>
+      </c>
+      <c r="E279" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>181</v>
+      </c>
+      <c r="B280" t="s">
+        <v>19</v>
+      </c>
+      <c r="C280" t="s">
+        <v>253</v>
+      </c>
+      <c r="D280">
+        <v>0.45871559633027525</v>
+      </c>
+      <c r="E280" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>181</v>
+      </c>
+      <c r="B281" t="s">
+        <v>132</v>
+      </c>
+      <c r="C281" t="s">
+        <v>254</v>
+      </c>
+      <c r="D281">
+        <v>0.50831353919239908</v>
+      </c>
+      <c r="E281" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>181</v>
+      </c>
+      <c r="B282" t="s">
+        <v>134</v>
+      </c>
+      <c r="C282" t="s">
+        <v>255</v>
+      </c>
+      <c r="D282">
+        <v>0.50225225225225223</v>
+      </c>
+      <c r="E282" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>181</v>
+      </c>
+      <c r="B283" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" t="s">
+        <v>256</v>
+      </c>
+      <c r="D283">
+        <v>0.50349650349650354</v>
+      </c>
+      <c r="E283" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>181</v>
+      </c>
+      <c r="B284" t="s">
+        <v>21</v>
+      </c>
+      <c r="C284" t="s">
+        <v>257</v>
+      </c>
+      <c r="D284">
+        <v>0.5111607142857143</v>
+      </c>
+      <c r="E284" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>181</v>
+      </c>
+      <c r="B285" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" t="s">
+        <v>258</v>
+      </c>
+      <c r="D285">
+        <v>0.52981651376146788</v>
+      </c>
+      <c r="E285" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>181</v>
+      </c>
+      <c r="B286" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" t="s">
+        <v>259</v>
+      </c>
+      <c r="D286">
+        <v>0.52235294117647069</v>
+      </c>
+      <c r="E286" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>181</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287" t="s">
+        <v>260</v>
+      </c>
+      <c r="D287">
+        <v>0.27208756841282256</v>
+      </c>
+      <c r="E287" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>181</v>
+      </c>
+      <c r="B288" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" t="s">
+        <v>261</v>
+      </c>
+      <c r="D288">
+        <v>0.24139148861027723</v>
+      </c>
+      <c r="E288" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>181</v>
+      </c>
+      <c r="B289" t="s">
+        <v>142</v>
+      </c>
+      <c r="C289" t="s">
+        <v>262</v>
+      </c>
+      <c r="D289">
+        <v>0.20441458733205373</v>
+      </c>
+      <c r="E289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>181</v>
+      </c>
+      <c r="B290" t="s">
+        <v>144</v>
+      </c>
+      <c r="C290" t="s">
+        <v>263</v>
+      </c>
+      <c r="D290">
+        <v>0.25353016688061614</v>
+      </c>
+      <c r="E290" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>181</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>264</v>
+      </c>
+      <c r="D291">
+        <v>0.25483163976887824</v>
+      </c>
+      <c r="E291" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>181</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>263</v>
+      </c>
+      <c r="D292">
+        <v>0.47489177489177486</v>
+      </c>
+      <c r="E292" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>181</v>
+      </c>
+      <c r="B293" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" t="s">
+        <v>265</v>
+      </c>
+      <c r="D293">
+        <v>0.31334661354581678</v>
+      </c>
+      <c r="E293" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>181</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>266</v>
+      </c>
+      <c r="D294">
+        <v>0.49579087284005319</v>
+      </c>
+      <c r="E294" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>181</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>267</v>
+      </c>
+      <c r="D295">
+        <v>0.27736812251843451</v>
+      </c>
+      <c r="E295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>181</v>
+      </c>
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>268</v>
+      </c>
+      <c r="D296">
+        <v>0.47590495225405288</v>
+      </c>
+      <c r="E296" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>181</v>
+      </c>
+      <c r="B297" t="s">
+        <v>170</v>
+      </c>
+      <c r="C297" t="s">
+        <v>269</v>
+      </c>
+      <c r="D297">
+        <v>0.25148352772662169</v>
+      </c>
+      <c r="E297" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>181</v>
+      </c>
+      <c r="B298" t="s">
+        <v>172</v>
+      </c>
+      <c r="C298" t="s">
+        <v>270</v>
+      </c>
+      <c r="D298">
+        <v>0.5</v>
+      </c>
+      <c r="E298" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>181</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>271</v>
+      </c>
+      <c r="D299">
+        <v>0.50067598017124826</v>
+      </c>
+      <c r="E299" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>181</v>
+      </c>
+      <c r="B300" t="s">
+        <v>184</v>
+      </c>
+      <c r="C300" t="s">
+        <v>272</v>
+      </c>
+      <c r="D300">
+        <v>0.22351904866769429</v>
+      </c>
+      <c r="E300" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>181</v>
+      </c>
+      <c r="B301" t="s">
+        <v>185</v>
+      </c>
+      <c r="C301" t="s">
+        <v>273</v>
+      </c>
+      <c r="D301">
+        <v>0.52317128577919125</v>
+      </c>
+      <c r="E301" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>181</v>
+      </c>
+      <c r="B302" t="s">
+        <v>186</v>
+      </c>
+      <c r="C302" t="s">
+        <v>274</v>
+      </c>
+      <c r="D302">
+        <v>0.23641894828335505</v>
+      </c>
+      <c r="E302" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>181</v>
+      </c>
+      <c r="B303" t="s">
+        <v>187</v>
+      </c>
+      <c r="C303" t="s">
+        <v>275</v>
+      </c>
+      <c r="D303">
+        <v>0.24352222456288183</v>
+      </c>
+      <c r="E303" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>181</v>
+      </c>
+      <c r="B304" t="s">
+        <v>188</v>
+      </c>
+      <c r="C304" t="s">
+        <v>276</v>
+      </c>
+      <c r="D304">
+        <v>0.49868651488616467</v>
+      </c>
+      <c r="E304" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>182</v>
+      </c>
+      <c r="B305" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" t="s">
+        <v>277</v>
+      </c>
+      <c r="D305">
+        <v>0.5050391937290033</v>
+      </c>
+      <c r="E305" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>182</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>278</v>
+      </c>
+      <c r="D306">
+        <v>0.5356910392709916</v>
+      </c>
+      <c r="E306" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>182</v>
+      </c>
+      <c r="B307" t="s">
+        <v>16</v>
+      </c>
+      <c r="C307" t="s">
+        <v>279</v>
+      </c>
+      <c r="D307">
+        <v>0.22378243867756842</v>
+      </c>
+      <c r="E307" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>182</v>
+      </c>
+      <c r="B308" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308" t="s">
+        <v>280</v>
+      </c>
+      <c r="D308">
+        <v>0.22818086225026291</v>
+      </c>
+      <c r="E308" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>182</v>
+      </c>
+      <c r="B309" t="s">
+        <v>18</v>
+      </c>
+      <c r="C309" t="s">
+        <v>281</v>
+      </c>
+      <c r="D309">
+        <v>0.50662544169611301</v>
+      </c>
+      <c r="E309" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>182</v>
+      </c>
+      <c r="B310" t="s">
+        <v>19</v>
+      </c>
+      <c r="C310" t="s">
+        <v>282</v>
+      </c>
+      <c r="D310">
+        <v>0.50199621769279268</v>
+      </c>
+      <c r="E310" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>182</v>
+      </c>
+      <c r="B311" t="s">
+        <v>132</v>
+      </c>
+      <c r="C311" t="s">
+        <v>283</v>
+      </c>
+      <c r="D311">
+        <v>0.49418477068246652</v>
+      </c>
+      <c r="E311" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>182</v>
+      </c>
+      <c r="B312" t="s">
+        <v>134</v>
+      </c>
+      <c r="C312" t="s">
+        <v>284</v>
+      </c>
+      <c r="D312">
+        <v>0.47449967721110398</v>
+      </c>
+      <c r="E312" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>182</v>
+      </c>
+      <c r="B313" t="s">
+        <v>189</v>
+      </c>
+      <c r="C313" t="s">
+        <v>285</v>
+      </c>
+      <c r="D313">
+        <v>0.50366598778004068</v>
+      </c>
+      <c r="E313" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>182</v>
+      </c>
+      <c r="B314" t="s">
+        <v>190</v>
+      </c>
+      <c r="C314" t="s">
+        <v>286</v>
+      </c>
+      <c r="D314">
+        <v>0.4814074370251899</v>
+      </c>
+      <c r="E314" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>182</v>
+      </c>
+      <c r="B315" t="s">
+        <v>191</v>
+      </c>
+      <c r="C315" t="s">
+        <v>287</v>
+      </c>
+      <c r="D315">
+        <v>0.48505603985056034</v>
+      </c>
+      <c r="E315" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>182</v>
+      </c>
+      <c r="B316" t="s">
+        <v>192</v>
+      </c>
+      <c r="C316" t="s">
+        <v>288</v>
+      </c>
+      <c r="D316">
+        <v>0.52590163934426237</v>
+      </c>
+      <c r="E316" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>182</v>
+      </c>
+      <c r="B317" t="s">
+        <v>193</v>
+      </c>
+      <c r="C317" t="s">
+        <v>289</v>
+      </c>
+      <c r="D317">
+        <v>0.48215458725640464</v>
+      </c>
+      <c r="E317" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>182</v>
+      </c>
+      <c r="B318" t="s">
+        <v>194</v>
+      </c>
+      <c r="C318" t="s">
+        <v>290</v>
+      </c>
+      <c r="D318">
+        <v>0.49226203095187615</v>
+      </c>
+      <c r="E318" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>182</v>
+      </c>
+      <c r="B319" t="s">
+        <v>195</v>
+      </c>
+      <c r="C319" t="s">
+        <v>291</v>
+      </c>
+      <c r="D319">
+        <v>0.46715789473684211</v>
+      </c>
+      <c r="E319" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>182</v>
+      </c>
+      <c r="B320" t="s">
+        <v>196</v>
+      </c>
+      <c r="C320" t="s">
+        <v>292</v>
+      </c>
+      <c r="D320">
+        <v>0.46996996996996998</v>
+      </c>
+      <c r="E320" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>182</v>
+      </c>
+      <c r="B321" t="s">
+        <v>183</v>
+      </c>
+      <c r="C321" t="s">
+        <v>293</v>
+      </c>
+      <c r="D321">
+        <v>0.47649384885764495</v>
+      </c>
+      <c r="E321" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>182</v>
+      </c>
+      <c r="B322" t="s">
+        <v>184</v>
+      </c>
+      <c r="C322" t="s">
+        <v>294</v>
+      </c>
+      <c r="D322">
+        <v>0.49496797804208603</v>
+      </c>
+      <c r="E322" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>182</v>
+      </c>
+      <c r="B323" t="s">
+        <v>185</v>
+      </c>
+      <c r="C323" t="s">
+        <v>295</v>
+      </c>
+      <c r="D323">
+        <v>0.49229723606705933</v>
+      </c>
+      <c r="E323" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>182</v>
+      </c>
+      <c r="B324" t="s">
+        <v>186</v>
+      </c>
+      <c r="C324" t="s">
+        <v>296</v>
+      </c>
+      <c r="D324">
+        <v>0.50435350457117989</v>
+      </c>
+      <c r="E324" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>182</v>
+      </c>
+      <c r="B325" t="s">
+        <v>187</v>
+      </c>
+      <c r="C325" t="s">
+        <v>297</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>182</v>
+      </c>
+      <c r="B326" t="s">
+        <v>188</v>
+      </c>
+      <c r="C326" t="s">
+        <v>298</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>179</v>
+      </c>
+      <c r="B327" t="s">
+        <v>299</v>
+      </c>
+      <c r="C327" t="s">
+        <v>197</v>
+      </c>
+      <c r="D327">
+        <v>0.50039463299131803</v>
+      </c>
+      <c r="E327" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>179</v>
+      </c>
+      <c r="B328" t="s">
+        <v>25</v>
+      </c>
+      <c r="C328" t="s">
+        <v>198</v>
+      </c>
+      <c r="D328">
+        <v>0.25179425837320579</v>
+      </c>
+      <c r="E328" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>179</v>
+      </c>
+      <c r="B329" t="s">
+        <v>28</v>
+      </c>
+      <c r="C329" t="s">
+        <v>199</v>
+      </c>
+      <c r="D329">
+        <v>0.49262477268134974</v>
+      </c>
+      <c r="E329" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>179</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" t="s">
+        <v>200</v>
+      </c>
+      <c r="D330">
+        <v>0.49311352253756258</v>
+      </c>
+      <c r="E330" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>179</v>
+      </c>
+      <c r="B331" t="s">
+        <v>189</v>
+      </c>
+      <c r="C331" t="s">
+        <v>201</v>
+      </c>
+      <c r="D331">
+        <v>0.2379467996674979</v>
+      </c>
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>179</v>
+      </c>
+      <c r="B332" t="s">
+        <v>193</v>
+      </c>
+      <c r="C332" t="s">
+        <v>202</v>
+      </c>
+      <c r="D332">
+        <v>0.5143099427602289</v>
+      </c>
+      <c r="E332" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>179</v>
+      </c>
+      <c r="B333" t="s">
+        <v>299</v>
+      </c>
+      <c r="C333" t="s">
+        <v>203</v>
+      </c>
+      <c r="D333">
+        <v>0.49118440157643639</v>
+      </c>
+      <c r="E333" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>179</v>
+      </c>
+      <c r="B334" t="s">
+        <v>192</v>
+      </c>
+      <c r="C334" t="s">
+        <v>204</v>
+      </c>
+      <c r="D334">
+        <v>0.51620845301600327</v>
+      </c>
+      <c r="E334" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>179</v>
+      </c>
+      <c r="B335" t="s">
+        <v>190</v>
+      </c>
+      <c r="C335" t="s">
+        <v>205</v>
+      </c>
+      <c r="D335">
+        <v>0.4701825557809331</v>
+      </c>
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>179</v>
+      </c>
+      <c r="B336" t="s">
+        <v>26</v>
+      </c>
+      <c r="C336" t="s">
+        <v>206</v>
+      </c>
+      <c r="D336">
+        <v>0.5066421418352749</v>
+      </c>
+      <c r="E336" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>179</v>
+      </c>
+      <c r="B337" t="s">
+        <v>300</v>
+      </c>
+      <c r="C337" t="s">
+        <v>207</v>
+      </c>
+      <c r="D337">
+        <v>0.51137994668853803</v>
+      </c>
+      <c r="E337" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>179</v>
+      </c>
+      <c r="B338" t="s">
+        <v>301</v>
+      </c>
+      <c r="C338" t="s">
+        <v>208</v>
+      </c>
+      <c r="D338">
+        <v>0.4966109353818346</v>
+      </c>
+      <c r="E338" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>180</v>
+      </c>
+      <c r="B339" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" t="s">
+        <v>209</v>
+      </c>
+      <c r="D339">
+        <v>0.46001252871163084</v>
+      </c>
+      <c r="E339" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>302</v>
+      </c>
+      <c r="B340" t="s">
+        <v>183</v>
+      </c>
+      <c r="C340" t="s">
+        <v>210</v>
+      </c>
+      <c r="D340">
+        <v>0.25794621026894865</v>
+      </c>
+      <c r="E340" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>302</v>
+      </c>
+      <c r="B341" t="s">
+        <v>188</v>
+      </c>
+      <c r="C341" t="s">
+        <v>211</v>
+      </c>
+      <c r="D341">
+        <v>0.52352941176470591</v>
+      </c>
+      <c r="E341" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>302</v>
+      </c>
+      <c r="B342" t="s">
+        <v>185</v>
+      </c>
+      <c r="C342" t="s">
+        <v>212</v>
+      </c>
+      <c r="D342">
+        <v>0.4663372452130945</v>
+      </c>
+      <c r="E342" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>302</v>
+      </c>
+      <c r="B343" t="s">
+        <v>186</v>
+      </c>
+      <c r="C343" t="s">
+        <v>213</v>
+      </c>
+      <c r="D343">
+        <v>0.44480171489817799</v>
+      </c>
+      <c r="E343" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>302</v>
+      </c>
+      <c r="B344" t="s">
+        <v>196</v>
+      </c>
+      <c r="C344" t="s">
+        <v>214</v>
+      </c>
+      <c r="D344">
+        <v>0.46283783783783783</v>
+      </c>
+      <c r="E344" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>302</v>
+      </c>
+      <c r="B345" t="s">
+        <v>184</v>
+      </c>
+      <c r="C345" t="s">
+        <v>215</v>
+      </c>
+      <c r="D345">
+        <v>0.2678002125398512</v>
+      </c>
+      <c r="E345" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>180</v>
+      </c>
+      <c r="B346" t="s">
+        <v>17</v>
+      </c>
+      <c r="C346" t="s">
+        <v>216</v>
+      </c>
+      <c r="D346">
+        <v>0.48921639108554998</v>
+      </c>
+      <c r="E346" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>180</v>
+      </c>
+      <c r="B347" t="s">
+        <v>14</v>
+      </c>
+      <c r="C347" t="s">
+        <v>217</v>
+      </c>
+      <c r="D347">
+        <v>0.47406181015452536</v>
+      </c>
+      <c r="E347" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>302</v>
+      </c>
+      <c r="B348" t="s">
+        <v>194</v>
+      </c>
+      <c r="C348" t="s">
+        <v>218</v>
+      </c>
+      <c r="D348">
+        <v>0.48561687619859367</v>
+      </c>
+      <c r="E348" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>302</v>
+      </c>
+      <c r="B349" t="s">
+        <v>195</v>
+      </c>
+      <c r="C349" t="s">
+        <v>219</v>
+      </c>
+      <c r="D349">
+        <v>0.47504302925989672</v>
+      </c>
+      <c r="E349" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>180</v>
+      </c>
+      <c r="B350" t="s">
+        <v>17</v>
+      </c>
+      <c r="C350" t="s">
+        <v>220</v>
+      </c>
+      <c r="D350">
+        <v>0.50561555075593956</v>
+      </c>
+      <c r="E350" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>180</v>
+      </c>
+      <c r="B351" t="s">
+        <v>18</v>
+      </c>
+      <c r="C351" t="s">
+        <v>221</v>
+      </c>
+      <c r="D351">
+        <v>0.48796819418288345</v>
+      </c>
+      <c r="E351" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>179</v>
+      </c>
+      <c r="B352" t="s">
+        <v>187</v>
+      </c>
+      <c r="C352" t="s">
+        <v>222</v>
+      </c>
+      <c r="D352">
+        <v>0.28575606902603101</v>
+      </c>
+      <c r="E352" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>180</v>
+      </c>
+      <c r="B353" t="s">
+        <v>16</v>
+      </c>
+      <c r="C353" t="s">
+        <v>223</v>
+      </c>
+      <c r="D353">
+        <v>0.45734295415959259</v>
+      </c>
+      <c r="E353" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" t="s">
+        <v>224</v>
+      </c>
+      <c r="D354">
+        <v>0.50757016248153619</v>
+      </c>
+      <c r="E354" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>13</v>
+      </c>
+      <c r="C355" t="s">
+        <v>225</v>
+      </c>
+      <c r="D355">
+        <v>0.46629643814630406</v>
+      </c>
+      <c r="E355" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>24</v>
+      </c>
+      <c r="C356" t="s">
+        <v>226</v>
+      </c>
+      <c r="D356">
+        <v>0.86707889720582076</v>
+      </c>
+      <c r="E356" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>28</v>
+      </c>
+      <c r="C357" t="s">
+        <v>227</v>
+      </c>
+      <c r="D357">
+        <v>0.48332988196313936</v>
+      </c>
+      <c r="E357" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>180</v>
+      </c>
+      <c r="B358" t="s">
+        <v>25</v>
+      </c>
+      <c r="C358" t="s">
+        <v>228</v>
+      </c>
+      <c r="D358">
+        <v>0.49361987911349897</v>
+      </c>
+      <c r="E358" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>180</v>
+      </c>
+      <c r="B359" t="s">
+        <v>26</v>
+      </c>
+      <c r="C359" t="s">
+        <v>229</v>
+      </c>
+      <c r="D359">
+        <v>0.49796931407942241</v>
+      </c>
+      <c r="E359" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>180</v>
+      </c>
+      <c r="B360" t="s">
+        <v>301</v>
+      </c>
+      <c r="C360" t="s">
+        <v>230</v>
+      </c>
+      <c r="D360">
+        <v>0.47775800711743771</v>
+      </c>
+      <c r="E360" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>180</v>
+      </c>
+      <c r="B361" t="s">
+        <v>299</v>
+      </c>
+      <c r="C361" t="s">
+        <v>231</v>
+      </c>
+      <c r="D361">
+        <v>0.48178844056706649</v>
+      </c>
+      <c r="E361" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>180</v>
+      </c>
+      <c r="B362" t="s">
+        <v>303</v>
+      </c>
+      <c r="C362" t="s">
+        <v>232</v>
+      </c>
+      <c r="D362">
+        <v>0.48227571115973739</v>
+      </c>
+      <c r="E362" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>180</v>
+      </c>
+      <c r="B363" t="s">
+        <v>300</v>
+      </c>
+      <c r="C363" t="s">
+        <v>233</v>
+      </c>
+      <c r="D363">
+        <v>0.50148030061489413</v>
+      </c>
+      <c r="E363" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>180</v>
+      </c>
+      <c r="B364" t="s">
+        <v>189</v>
+      </c>
+      <c r="C364" t="s">
+        <v>234</v>
+      </c>
+      <c r="D364">
+        <v>0.4951902969468841</v>
+      </c>
+      <c r="E364" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>180</v>
+      </c>
+      <c r="B365" t="s">
+        <v>190</v>
+      </c>
+      <c r="C365" t="s">
+        <v>235</v>
+      </c>
+      <c r="D365">
+        <v>0.47415468324912552</v>
+      </c>
+      <c r="E365" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>180</v>
+      </c>
+      <c r="B366" t="s">
+        <v>191</v>
+      </c>
+      <c r="C366" t="s">
+        <v>236</v>
+      </c>
+      <c r="D366">
+        <v>0.49301848049281316</v>
+      </c>
+      <c r="E366" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>180</v>
+      </c>
+      <c r="B367" t="s">
+        <v>192</v>
+      </c>
+      <c r="C367" t="s">
+        <v>237</v>
+      </c>
+      <c r="D367">
+        <v>0.51915634674922595</v>
+      </c>
+      <c r="E367" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>180</v>
+      </c>
+      <c r="B368" t="s">
+        <v>193</v>
+      </c>
+      <c r="C368" t="s">
+        <v>238</v>
+      </c>
+      <c r="D368">
+        <v>0.45025402201524128</v>
+      </c>
+      <c r="E368" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>180</v>
+      </c>
+      <c r="B369" t="s">
+        <v>194</v>
+      </c>
+      <c r="C369" t="s">
+        <v>239</v>
+      </c>
+      <c r="D369">
+        <v>0.49516713652839311</v>
+      </c>
+      <c r="E369" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>180</v>
+      </c>
+      <c r="B370" t="s">
+        <v>195</v>
+      </c>
+      <c r="C370" t="s">
+        <v>240</v>
+      </c>
+      <c r="D370">
+        <v>0.43532526475037819</v>
+      </c>
+      <c r="E370" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>180</v>
+      </c>
+      <c r="B371" t="s">
+        <v>196</v>
+      </c>
+      <c r="C371" t="s">
+        <v>241</v>
+      </c>
+      <c r="D371">
+        <v>0.4517595887702649</v>
+      </c>
+      <c r="E371" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>181</v>
+      </c>
+      <c r="B372" t="s">
+        <v>13</v>
+      </c>
+      <c r="C372" t="s">
+        <v>242</v>
+      </c>
+      <c r="D372">
+        <v>0.57308584686774944</v>
+      </c>
+      <c r="E372" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>181</v>
+      </c>
+      <c r="B373" t="s">
+        <v>24</v>
+      </c>
+      <c r="C373" t="s">
+        <v>243</v>
+      </c>
+      <c r="D373">
+        <v>0.5048076923076924</v>
+      </c>
+      <c r="E373" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>181</v>
+      </c>
+      <c r="B374" t="s">
+        <v>28</v>
+      </c>
+      <c r="C374" t="s">
+        <v>244</v>
+      </c>
+      <c r="D374">
+        <v>0.53317535545023698</v>
+      </c>
+      <c r="E374" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>181</v>
+      </c>
+      <c r="B375" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" t="s">
+        <v>245</v>
+      </c>
+      <c r="D375">
+        <v>0.48539325842696635</v>
+      </c>
+      <c r="E375" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>181</v>
+      </c>
+      <c r="B376" t="s">
+        <v>26</v>
+      </c>
+      <c r="C376" t="s">
+        <v>246</v>
+      </c>
+      <c r="D376">
+        <v>0.5021929824561403</v>
+      </c>
+      <c r="E376" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>181</v>
+      </c>
+      <c r="B377" t="s">
+        <v>301</v>
+      </c>
+      <c r="C377" t="s">
+        <v>247</v>
+      </c>
+      <c r="D377">
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="E377" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>181</v>
+      </c>
+      <c r="B378" t="s">
+        <v>299</v>
+      </c>
+      <c r="C378" t="s">
+        <v>248</v>
+      </c>
+      <c r="D378">
+        <v>0.49539170506912444</v>
+      </c>
+      <c r="E378" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>181</v>
+      </c>
+      <c r="B379" t="s">
+        <v>303</v>
+      </c>
+      <c r="C379" t="s">
+        <v>249</v>
+      </c>
+      <c r="D379">
+        <v>0.52477477477477474</v>
+      </c>
+      <c r="E379" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>181</v>
+      </c>
+      <c r="B380" t="s">
+        <v>300</v>
+      </c>
+      <c r="C380" t="s">
+        <v>250</v>
+      </c>
+      <c r="D380">
+        <v>0.5</v>
+      </c>
+      <c r="E380" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>181</v>
+      </c>
+      <c r="B381" t="s">
+        <v>189</v>
+      </c>
+      <c r="C381" t="s">
+        <v>251</v>
+      </c>
+      <c r="D381">
+        <v>0.49655172413793108</v>
+      </c>
+      <c r="E381" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>181</v>
+      </c>
+      <c r="B382" t="s">
+        <v>190</v>
+      </c>
+      <c r="C382" t="s">
+        <v>252</v>
+      </c>
+      <c r="D382">
+        <v>0.50340136054421769</v>
+      </c>
+      <c r="E382" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>181</v>
+      </c>
+      <c r="B383" t="s">
+        <v>191</v>
+      </c>
+      <c r="C383" t="s">
+        <v>253</v>
+      </c>
+      <c r="D383">
+        <v>0.54128440366972475</v>
+      </c>
+      <c r="E383" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>181</v>
+      </c>
+      <c r="B384" t="s">
+        <v>192</v>
+      </c>
+      <c r="C384" t="s">
+        <v>254</v>
+      </c>
+      <c r="D384">
+        <v>0.49168646080760098</v>
+      </c>
+      <c r="E384" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>181</v>
+      </c>
+      <c r="B385" t="s">
+        <v>193</v>
+      </c>
+      <c r="C385" t="s">
+        <v>255</v>
+      </c>
+      <c r="D385">
+        <v>0.49774774774774777</v>
+      </c>
+      <c r="E385" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>181</v>
+      </c>
+      <c r="B386" t="s">
+        <v>194</v>
+      </c>
+      <c r="C386" t="s">
+        <v>256</v>
+      </c>
+      <c r="D386">
+        <v>0.49650349650349651</v>
+      </c>
+      <c r="E386" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>181</v>
+      </c>
+      <c r="B387" t="s">
+        <v>195</v>
+      </c>
+      <c r="C387" t="s">
+        <v>257</v>
+      </c>
+      <c r="D387">
+        <v>0.4888392857142857</v>
+      </c>
+      <c r="E387" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>181</v>
+      </c>
+      <c r="B388" t="s">
+        <v>196</v>
+      </c>
+      <c r="C388" t="s">
+        <v>258</v>
+      </c>
+      <c r="D388">
+        <v>0.47018348623853212</v>
+      </c>
+      <c r="E388" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>181</v>
+      </c>
+      <c r="B389" t="s">
+        <v>183</v>
+      </c>
+      <c r="C389" t="s">
+        <v>259</v>
+      </c>
+      <c r="D389">
+        <v>0.47764705882352942</v>
+      </c>
+      <c r="E389" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>182</v>
+      </c>
+      <c r="B390" t="s">
+        <v>20</v>
+      </c>
+      <c r="C390" t="s">
+        <v>260</v>
+      </c>
+      <c r="D390">
+        <v>0.23221266614542613</v>
+      </c>
+      <c r="E390" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>182</v>
+      </c>
+      <c r="B391" t="s">
+        <v>21</v>
+      </c>
+      <c r="C391" t="s">
+        <v>261</v>
+      </c>
+      <c r="D391">
+        <v>0.21366766731414444</v>
+      </c>
+      <c r="E391" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>182</v>
+      </c>
+      <c r="B392" t="s">
+        <v>27</v>
+      </c>
+      <c r="C392" t="s">
+        <v>262</v>
+      </c>
+      <c r="D392">
+        <v>0.29577735124760074</v>
+      </c>
+      <c r="E392" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>182</v>
+      </c>
+      <c r="B393" t="s">
+        <v>22</v>
+      </c>
+      <c r="C393" t="s">
+        <v>263</v>
+      </c>
+      <c r="D393">
+        <v>0.248395378690629</v>
+      </c>
+      <c r="E393" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>182</v>
+      </c>
+      <c r="B394" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394" t="s">
+        <v>264</v>
+      </c>
+      <c r="D394">
+        <v>0.21259214983064356</v>
+      </c>
+      <c r="E394" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>182</v>
+      </c>
+      <c r="B395" t="s">
+        <v>23</v>
+      </c>
+      <c r="C395" t="s">
+        <v>263</v>
+      </c>
+      <c r="D395">
+        <v>0.52510822510822508</v>
+      </c>
+      <c r="E395" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>182</v>
+      </c>
+      <c r="B396" t="s">
+        <v>142</v>
+      </c>
+      <c r="C396" t="s">
+        <v>265</v>
+      </c>
+      <c r="D396">
+        <v>0.37051792828685259</v>
+      </c>
+      <c r="E396" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>182</v>
+      </c>
+      <c r="B397" t="s">
+        <v>144</v>
+      </c>
+      <c r="C397" t="s">
+        <v>266</v>
+      </c>
+      <c r="D397">
+        <v>0.50420912715994681</v>
+      </c>
+      <c r="E397" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>182</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>267</v>
+      </c>
+      <c r="D398">
+        <v>0.2179996218566837</v>
+      </c>
+      <c r="E398" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>182</v>
+      </c>
+      <c r="B399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" t="s">
+        <v>268</v>
+      </c>
+      <c r="D399">
+        <v>0.52409504774594717</v>
+      </c>
+      <c r="E399" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>182</v>
+      </c>
+      <c r="B400" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400" t="s">
+        <v>269</v>
+      </c>
+      <c r="D400">
+        <v>0.23306732146511155</v>
+      </c>
+      <c r="E400" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>182</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>270</v>
+      </c>
+      <c r="D401">
+        <v>0.5</v>
+      </c>
+      <c r="E401" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>182</v>
+      </c>
+      <c r="B402" t="s">
+        <v>9</v>
+      </c>
+      <c r="C402" t="s">
+        <v>271</v>
+      </c>
+      <c r="D402">
+        <v>0.49932401982875163</v>
+      </c>
+      <c r="E402" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>182</v>
+      </c>
+      <c r="B403" t="s">
+        <v>11</v>
+      </c>
+      <c r="C403" t="s">
+        <v>272</v>
+      </c>
+      <c r="D403">
+        <v>0.27813256991852014</v>
+      </c>
+      <c r="E403" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>182</v>
+      </c>
+      <c r="B404" t="s">
+        <v>170</v>
+      </c>
+      <c r="C404" t="s">
+        <v>273</v>
+      </c>
+      <c r="D404">
+        <v>0.47682871422080875</v>
+      </c>
+      <c r="E404" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>182</v>
+      </c>
+      <c r="B405" t="s">
+        <v>172</v>
+      </c>
+      <c r="C405" t="s">
+        <v>274</v>
+      </c>
+      <c r="D405">
+        <v>0.26814428509343763</v>
+      </c>
+      <c r="E405" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>182</v>
+      </c>
+      <c r="B406" t="s">
+        <v>12</v>
+      </c>
+      <c r="C406" t="s">
+        <v>275</v>
+      </c>
+      <c r="D406">
+        <v>0.26859068885611964</v>
+      </c>
+      <c r="E406" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>182</v>
+      </c>
+      <c r="B407" t="s">
+        <v>13</v>
+      </c>
+      <c r="C407" t="s">
+        <v>276</v>
+      </c>
+      <c r="D407">
+        <v>0.50131348511383544</v>
+      </c>
+      <c r="E407" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>182</v>
+      </c>
+      <c r="B408" t="s">
+        <v>24</v>
+      </c>
+      <c r="C408" t="s">
+        <v>277</v>
+      </c>
+      <c r="D408">
+        <v>0.49496080627099664</v>
+      </c>
+      <c r="E408" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>182</v>
+      </c>
+      <c r="B409" t="s">
+        <v>28</v>
+      </c>
+      <c r="C409" t="s">
+        <v>278</v>
+      </c>
+      <c r="D409">
+        <v>0.46430896072900846</v>
+      </c>
+      <c r="E409" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>182</v>
+      </c>
+      <c r="B410" t="s">
+        <v>25</v>
+      </c>
+      <c r="C410" t="s">
+        <v>279</v>
+      </c>
+      <c r="D410">
+        <v>0.26892996800568786</v>
+      </c>
+      <c r="E410" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>182</v>
+      </c>
+      <c r="B411" t="s">
+        <v>26</v>
+      </c>
+      <c r="C411" t="s">
+        <v>280</v>
+      </c>
+      <c r="D411">
+        <v>0.25341745531019982</v>
+      </c>
+      <c r="E411" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>182</v>
+      </c>
+      <c r="B412" t="s">
+        <v>301</v>
+      </c>
+      <c r="C412" t="s">
+        <v>281</v>
+      </c>
+      <c r="D412">
+        <v>0.49337455830388688</v>
+      </c>
+      <c r="E412" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>182</v>
+      </c>
+      <c r="B413" t="s">
+        <v>299</v>
+      </c>
+      <c r="C413" t="s">
+        <v>282</v>
+      </c>
+      <c r="D413">
+        <v>0.49800378230720738</v>
+      </c>
+      <c r="E413" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>182</v>
+      </c>
+      <c r="B414" t="s">
+        <v>303</v>
+      </c>
+      <c r="C414" t="s">
+        <v>283</v>
+      </c>
+      <c r="D414">
+        <v>0.50581522931753353</v>
+      </c>
+      <c r="E414" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>182</v>
+      </c>
+      <c r="B415" t="s">
+        <v>300</v>
+      </c>
+      <c r="C415" t="s">
+        <v>284</v>
+      </c>
+      <c r="D415">
+        <v>0.52550032278889613</v>
+      </c>
+      <c r="E415" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C416" t="s">
+        <v>285</v>
+      </c>
+      <c r="D416">
+        <v>0.49633401221995926</v>
+      </c>
+      <c r="E416" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C417" t="s">
+        <v>286</v>
+      </c>
+      <c r="D417">
+        <v>0.51859256297481005</v>
+      </c>
+      <c r="E417" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C418" t="s">
+        <v>287</v>
+      </c>
+      <c r="D418">
+        <v>0.51494396014943955</v>
+      </c>
+      <c r="E418" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C419" t="s">
+        <v>288</v>
+      </c>
+      <c r="D419">
+        <v>0.47409836065573774</v>
+      </c>
+      <c r="E419" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C420" t="s">
+        <v>289</v>
+      </c>
+      <c r="D420">
+        <v>0.5178454127435953</v>
+      </c>
+      <c r="E420" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C421" t="s">
+        <v>290</v>
+      </c>
+      <c r="D421">
+        <v>0.50773796904812374</v>
+      </c>
+      <c r="E421" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C422" t="s">
+        <v>291</v>
+      </c>
+      <c r="D422">
+        <v>0.53284210526315789</v>
+      </c>
+      <c r="E422" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C423" t="s">
+        <v>292</v>
+      </c>
+      <c r="D423">
+        <v>0.53003003003003013</v>
+      </c>
+      <c r="E423" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C424" t="s">
+        <v>293</v>
+      </c>
+      <c r="D424">
+        <v>0.52350615114235499</v>
+      </c>
+      <c r="E424" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C425" t="s">
+        <v>294</v>
+      </c>
+      <c r="D425">
+        <v>0.50503202195791408</v>
+      </c>
+      <c r="E425" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C426" t="s">
+        <v>295</v>
+      </c>
+      <c r="D426">
+        <v>0.50770276393294067</v>
+      </c>
+      <c r="E426" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C427" t="s">
+        <v>296</v>
+      </c>
+      <c r="D427">
+        <v>0.49564649542882022</v>
+      </c>
+      <c r="E427" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C428" t="s">
+        <v>297</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C429" t="s">
+        <v>298</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3796,7 +8660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F8F3DD-2728-468F-9DBB-3496951A0BB1}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
@@ -3809,10 +8673,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3826,27 +8690,27 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>2.5600000000000001E-2</v>
